--- a/src/template/数据中心值班表.xlsx
+++ b/src/template/数据中心值班表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhang/digitalchina/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinguo/works/dc/imoc/深圳机场/source/imoc-sz-airport-frontend/src/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68FA4FE-AB32-B048-98FE-7FB7F27BC3D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6754A59D-01BB-974B-8FB9-10FC8653D73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排班表" sheetId="19" r:id="rId1"/>
@@ -396,13 +396,6 @@
       </rPr>
       <t>。</t>
     </r>
-  </si>
-  <si>
-    <t>系统：刘桑 13360542076
-     黄平 1597858265
-安防：甘耀进 18379153387
-网络：张涛 13828828263</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>系统：袁晓生 15322284542
@@ -432,6 +425,13 @@
   </si>
   <si>
     <t>2020/07</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统：刘桑 13360542076
+     黄平 15597858265
+安防：甘耀进 18379153387
+网络：张涛 13828828263</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1001,7 +1001,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:AF2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1269,7 +1269,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="39.5" customHeight="1">
       <c r="B1" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="2" spans="1:32" ht="39.5" customHeight="1">
       <c r="B2" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="3" spans="1:32" ht="32" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="23">
         <v>1</v>
@@ -1437,171 +1437,171 @@
     </row>
     <row r="4" spans="1:32" ht="64">
       <c r="A4" s="22" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="9"/>
       <c r="K4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="9"/>
       <c r="N4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="9"/>
       <c r="T4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="9"/>
       <c r="W4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="64">
       <c r="A5" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
       <c r="F5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V5" s="9"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y5" s="9"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
     </row>
     <row r="6" spans="1:32" ht="64">
       <c r="A6" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" s="9"/>
     </row>
